--- a/docs/スプリントあたりのチーム開発時間算出シート.xlsx
+++ b/docs/スプリントあたりのチーム開発時間算出シート.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="0" windowWidth="5370" windowHeight="1230" activeTab="1"/>
@@ -2000,9 +1999,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
